--- a/user-resource-description.xlsx
+++ b/user-resource-description.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\Teaching-HEIGVD-CM_WEBS-2015-Labo-Doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5560" yWindow="1020" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="5556" yWindow="1020" windowWidth="25596" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="44">
   <si>
     <t>Name</t>
   </si>
@@ -91,13 +96,73 @@
   </si>
   <si>
     <t>Delete a user specified by its id</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Issue</t>
+  </si>
+  <si>
+    <t>/issues</t>
+  </si>
+  <si>
+    <t>/issues/{id}</t>
+  </si>
+  <si>
+    <t>IssueType</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>/issuestype/{id}</t>
+  </si>
+  <si>
+    <t>/actions</t>
+  </si>
+  <si>
+    <t>/issuestypes</t>
+  </si>
+  <si>
+    <t>/actions/{id}</t>
+  </si>
+  <si>
+    <t>short name and a description</t>
+  </si>
+  <si>
+    <t>Attr.</t>
+  </si>
+  <si>
+    <t>Create a new issueType</t>
+  </si>
+  <si>
+    <t>Retrieve a issueType by its id</t>
+  </si>
+  <si>
+    <t>Update a issueType specified by its id</t>
+  </si>
+  <si>
+    <t>Delete a issueType specified by its id</t>
+  </si>
+  <si>
+    <t>Retrieve a list of issues</t>
+  </si>
+  <si>
+    <t>Create a issue user</t>
+  </si>
+  <si>
+    <t>Retrieve a issue by its id</t>
+  </si>
+  <si>
+    <t>Update a issues specified by its id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -146,6 +211,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -155,7 +233,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -250,6 +328,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -258,49 +345,59 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -312,6 +409,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -637,170 +742,518 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:F1048576"/>
+  <dimension ref="A2:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.296875" customWidth="1"/>
     <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="45" customWidth="1"/>
-    <col min="6" max="6" width="50.33203125" customWidth="1"/>
+    <col min="6" max="6" width="50.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="33" customHeight="1">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="33" customHeight="1">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13" t="s">
+    <row r="3" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="14"/>
-    </row>
-    <row r="4" spans="1:6" ht="33" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="33" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3" t="s">
+    <row r="5" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" ht="33" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3" t="s">
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" ht="33" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3" t="s">
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="33" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="33" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3" t="s">
+    <row r="9" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="D9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="33" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3" t="s">
+    <row r="10" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="1048576" spans="5:5">
-      <c r="E1048576" s="1"/>
+    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="H19" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="25">
+    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="B15:B17"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="B8:B10"/>
